--- a/biology/Médecine/Association_de_recherche_clinique_en_allergologie_et_asthmologie/Association_de_recherche_clinique_en_allergologie_et_asthmologie.xlsx
+++ b/biology/Médecine/Association_de_recherche_clinique_en_allergologie_et_asthmologie/Association_de_recherche_clinique_en_allergologie_et_asthmologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Association de recherche clinique en allergologie et asthmologie ou ARCAA est une association formée d’experts du monde de l'entreprise[1] et de médecins allergologues[réf. souhaitée]. Elle a pour mission de promouvoir et contribuer à la bonne pratique de l’allergologie, d’informer les individus et institutions sur les risques allergiques, ou encore de proposer des solutions à l’amélioration de la qualité de l’air.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Association de recherche clinique en allergologie et asthmologie ou ARCAA est une association formée d’experts du monde de l'entreprise et de médecins allergologues[réf. souhaitée]. Elle a pour mission de promouvoir et contribuer à la bonne pratique de l’allergologie, d’informer les individus et institutions sur les risques allergiques, ou encore de proposer des solutions à l’amélioration de la qualité de l’air.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, l'Association nationale des allergologues et immunologistes cliniciens exclusifs (ANAICE), devenu depuis le Syndicat français des allergologues (SYFAL), crée l’ARCAA[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, l'Association nationale des allergologues et immunologistes cliniciens exclusifs (ANAICE), devenu depuis le Syndicat français des allergologues (SYFAL), crée l’ARCAA.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Label</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dès 2010[3], l’ARCAA met en place une démarche de labellisation avec  la Fédération française de la Photocatalyse et TERA Environnement financée par l’ADEME[4]. 
-Le référentiel est créé en 2012[5],[6] et approuvé HQE-A (Haute qualité environnementale pour Allergiques)[7]. Son objectif est de fournir des labels garantissant l'absence d'allergènes de contact dans les produits labellisés[8] sur :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dès 2010, l’ARCAA met en place une démarche de labellisation avec  la Fédération française de la Photocatalyse et TERA Environnement financée par l’ADEME. 
+Le référentiel est créé en 2012, et approuvé HQE-A (Haute qualité environnementale pour Allergiques). Son objectif est de fournir des labels garantissant l'absence d'allergènes de contact dans les produits labellisés sur :
 les détergents
 les textiles traités anti acariens
 les chambres d'hôtel
@@ -578,9 +594,11 @@
           <t>Actions et sensibilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parallèlement à son activité de labellisation, l’ARCAA met en place plusieurs actions de sensibilisation auprès des professionnels[9] et des médias. Elle informe également le grand public des risques liés à l’allergie[10], la santé des consommateurs ou encore la Qualité de l’Air[11]. Conformément à son désir de  diffuser une parole experte auprès des médias et du grand public, l'ARCAA a signé un partenariat avec le site Doctissimo pour sensibiliser à l'importance de la qualité de l'air[12]. En septembre 2015, à l'occasion de la première journée nationale de la qualité de l'air organisée par le Ministère de l'Écologie, du Développement durable et de l'Énergie[13], l'association a participé en diffusant 10 conseils sur la qualité de l'air intérieur à destination du grand public[14]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement à son activité de labellisation, l’ARCAA met en place plusieurs actions de sensibilisation auprès des professionnels et des médias. Elle informe également le grand public des risques liés à l’allergie, la santé des consommateurs ou encore la Qualité de l’Air. Conformément à son désir de  diffuser une parole experte auprès des médias et du grand public, l'ARCAA a signé un partenariat avec le site Doctissimo pour sensibiliser à l'importance de la qualité de l'air. En septembre 2015, à l'occasion de la première journée nationale de la qualité de l'air organisée par le Ministère de l'Écologie, du Développement durable et de l'Énergie, l'association a participé en diffusant 10 conseils sur la qualité de l'air intérieur à destination du grand public. 
 </t>
         </is>
       </c>
